--- a/cleaned_price_history.xlsx
+++ b/cleaned_price_history.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="105">
   <si>
     <t>product_type</t>
   </si>
@@ -131,6 +131,9 @@
     <t>2025-01-06</t>
   </si>
   <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
     <t>2024-12-11</t>
   </si>
   <si>
@@ -161,6 +164,12 @@
     <t>11:26:38.962655</t>
   </si>
   <si>
+    <t>11:26:38.842351</t>
+  </si>
+  <si>
+    <t>11:27:40.335138</t>
+  </si>
+  <si>
     <t>13:19:44.287366</t>
   </si>
   <si>
@@ -176,6 +185,12 @@
     <t>11:26:41.386364</t>
   </si>
   <si>
+    <t>11:26:41.300964</t>
+  </si>
+  <si>
+    <t>11:27:42.566406</t>
+  </si>
+  <si>
     <t>14:43:53.484915</t>
   </si>
   <si>
@@ -312,6 +327,12 @@
   </si>
   <si>
     <t>11:26:43.701684</t>
+  </si>
+  <si>
+    <t>11:26:43.767105</t>
+  </si>
+  <si>
+    <t>11:27:44.837892</t>
   </si>
 </sst>
 </file>
@@ -682,7 +703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,7 +752,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -754,7 +775,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -777,7 +798,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -800,7 +821,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -823,53 +844,53 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>14.99</v>
+        <v>49.99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>14.99</v>
+        <v>49.99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -889,10 +910,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -912,10 +933,10 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -929,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>14.99</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -938,99 +959,99 @@
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>17.99</v>
+        <v>14.99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>17.99</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>16.99</v>
+        <v>11.99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>16.99</v>
+        <v>11.99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1044,16 +1065,16 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>16.99</v>
+        <v>17.99</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1067,16 +1088,16 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>16.99</v>
+        <v>17.99</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1099,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1122,7 +1143,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1142,10 +1163,10 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1168,7 +1189,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1188,10 +1209,10 @@
         <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1199,22 +1220,22 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>18.79</v>
+        <v>16.99</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1222,22 +1243,22 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>18.79</v>
+        <v>16.99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1245,22 +1266,22 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>18.79</v>
+        <v>16.99</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1268,22 +1289,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>18.79</v>
+        <v>16.99</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1297,16 +1318,16 @@
         <v>22</v>
       </c>
       <c r="D27">
-        <v>16.9</v>
+        <v>18.79</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1314,22 +1335,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>74.98999999999999</v>
+        <v>18.79</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1337,22 +1358,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>69.98999999999999</v>
+        <v>18.79</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1360,22 +1381,22 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>74.98999999999999</v>
+        <v>18.79</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1383,22 +1404,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>74.98999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1421,7 +1442,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1435,16 +1456,16 @@
         <v>23</v>
       </c>
       <c r="D33">
-        <v>74.98999999999999</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1467,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1487,10 +1508,10 @@
         <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1498,22 +1519,22 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>399</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1521,22 +1542,22 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>399</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1544,22 +1565,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>399</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1567,22 +1588,22 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>399</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1602,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1625,10 +1646,10 @@
         <v>32</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1651,7 +1672,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1674,7 +1695,7 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1694,10 +1715,10 @@
         <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1720,7 +1741,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1740,10 +1761,10 @@
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1751,22 +1772,22 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>3.59</v>
+        <v>399</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1774,22 +1795,22 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>3.59</v>
+        <v>399</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1797,22 +1818,22 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49">
-        <v>3.59</v>
+        <v>399</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1820,22 +1841,22 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>3.59</v>
+        <v>399</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1858,7 +1879,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1881,7 +1902,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1901,10 +1922,10 @@
         <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1927,7 +1948,7 @@
         <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1947,56 +1968,194 @@
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56">
-        <v>7.99</v>
+        <v>3.59</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>3.59</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58">
+        <v>3.59</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59">
+        <v>3.59</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
         <v>10</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>18</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C60" t="s">
         <v>26</v>
       </c>
-      <c r="D57">
+      <c r="D60">
         <v>7.99</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F60" t="s">
         <v>36</v>
       </c>
-      <c r="G57" t="s">
-        <v>97</v>
+      <c r="G60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>7.99</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>7.99</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>7.99</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2057,6 +2216,12 @@
     <hyperlink ref="E55" r:id="rId54"/>
     <hyperlink ref="E56" r:id="rId55"/>
     <hyperlink ref="E57" r:id="rId56"/>
+    <hyperlink ref="E58" r:id="rId57"/>
+    <hyperlink ref="E59" r:id="rId58"/>
+    <hyperlink ref="E60" r:id="rId59"/>
+    <hyperlink ref="E61" r:id="rId60"/>
+    <hyperlink ref="E62" r:id="rId61"/>
+    <hyperlink ref="E63" r:id="rId62"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2064,7 +2229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2113,7 +2278,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2136,7 +2301,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2159,7 +2324,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2182,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2205,7 +2370,53 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>49.99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>49.99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2215,6 +2426,8 @@
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2222,7 +2435,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2271,7 +2484,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2294,7 +2507,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2317,7 +2530,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2340,7 +2553,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2363,7 +2576,53 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>11.99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>11.99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2373,6 +2632,8 @@
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E5" r:id="rId4"/>
     <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2426,10 +2687,10 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2449,10 +2710,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2472,10 +2733,10 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2495,10 +2756,10 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2518,10 +2779,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2541,10 +2802,10 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2564,10 +2825,10 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2587,10 +2848,10 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2610,10 +2871,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2633,10 +2894,10 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2656,10 +2917,10 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2679,10 +2940,10 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2702,10 +2963,10 @@
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2725,10 +2986,10 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2748,10 +3009,10 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2771,10 +3032,10 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2794,10 +3055,10 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2817,10 +3078,10 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2840,10 +3101,10 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2863,10 +3124,10 @@
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2886,10 +3147,10 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2909,10 +3170,10 @@
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2932,10 +3193,10 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2955,10 +3216,10 @@
         <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2978,10 +3239,10 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3001,10 +3262,10 @@
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3024,10 +3285,10 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3047,10 +3308,10 @@
         <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3070,10 +3331,10 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3093,10 +3354,10 @@
         <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3116,10 +3377,10 @@
         <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3139,10 +3400,10 @@
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3162,10 +3423,10 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3185,10 +3446,10 @@
         <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3208,10 +3469,10 @@
         <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3231,10 +3492,10 @@
         <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3254,10 +3515,10 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3277,10 +3538,10 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3300,10 +3561,10 @@
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3323,10 +3584,10 @@
         <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3346,10 +3607,10 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3369,10 +3630,10 @@
         <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3392,10 +3653,10 @@
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3415,10 +3676,10 @@
         <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3474,7 +3735,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3523,7 +3784,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3546,13 +3807,61 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>7.99</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>7.99</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
